--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asmaa\UiPath\TestAutomationProjectt\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asmaa\uipath test\TestAutomationProjectUIPath\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51F233A6-D544-489A-B5DF-72CAB627523A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6721FCA7-F2B5-4EAE-8093-8F017128972F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="61">
   <si>
     <t>Email</t>
   </si>
@@ -154,6 +154,60 @@
   </si>
   <si>
     <t>Phone number</t>
+  </si>
+  <si>
+    <t>Profile Type</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Airline</t>
+  </si>
+  <si>
+    <t>Animals</t>
+  </si>
+  <si>
+    <t>Employer</t>
+  </si>
+  <si>
+    <t>Headhunter</t>
+  </si>
+  <si>
+    <t>Communication Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>21-50</t>
+  </si>
+  <si>
+    <t>51-100</t>
   </si>
 </sst>
 </file>
@@ -189,8 +243,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,26 +526,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,25 +560,40 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>42</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -530,25 +604,40 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>123456</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>123456789</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -559,25 +648,40 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>40</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>123456</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>123456789</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -588,25 +692,40 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>40</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>123456</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>123456789</v>
       </c>
+      <c r="M4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -617,25 +736,40 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>40</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>123456</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>123456789</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -646,25 +780,40 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>40</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>123456</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>123456789</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -675,25 +824,40 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>40</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>123456</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>123456789</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -704,25 +868,40 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>35</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>40</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>123456</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>123456789</v>
       </c>
+      <c r="M8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -733,25 +912,40 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>40</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>123456</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>123456789</v>
       </c>
+      <c r="M9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -762,25 +956,40 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>37</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>40</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>123456</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>123456789</v>
       </c>
+      <c r="M10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -791,22 +1000,37 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>40</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>123456</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>123456789</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
